--- a/Data/regiones.xlsx
+++ b/Data/regiones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.- Christian Chiroque\3.- Docencia - PUCP\Ciclo 2020 - 2 (Est1 y Est2)\Estadística 2\SESIÓN N° 4 - Conglomerados (particionante)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.- Christian Chiroque\3.- Docencia - PUCP\Ciclo 2020 - 2 (Est1 y Est2)\Estadística 2\SESIÓN N° 5 - Cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,18 +18,18 @@
     <sheet name="Capturas" sheetId="10" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Contexto!$A$1:$H$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Contexto!$A$1:$J$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja1!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>Región</t>
   </si>
@@ -296,6 +296,30 @@
   </si>
   <si>
     <t>region</t>
+  </si>
+  <si>
+    <t>competitividad</t>
+  </si>
+  <si>
+    <t>macrorregion</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>Oriente</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>Centro</t>
   </si>
 </sst>
 </file>
@@ -14933,7 +14957,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CHECK" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CHECK" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" compact="0" compactData="0">
   <location ref="A3:D44" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="13">
     <pivotField name="Día" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -15684,13 +15708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H998"/>
+  <dimension ref="A1:J998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="A1:H25"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15703,7 +15727,7 @@
     <col min="7" max="7" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>88</v>
       </c>
@@ -15728,8 +15752,14 @@
       <c r="H1" s="33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
@@ -15754,8 +15784,14 @@
       <c r="H2" s="32">
         <v>6820.9288765869087</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
@@ -15780,8 +15816,14 @@
       <c r="H3" s="32">
         <v>16846.823323923727</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
@@ -15806,8 +15848,14 @@
       <c r="H4" s="32">
         <v>14738.951081629868</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -15832,8 +15880,14 @@
       <c r="H5" s="32">
         <v>23096.513456865283</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
@@ -15858,8 +15912,14 @@
       <c r="H6" s="32">
         <v>7783.1914873461828</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
@@ -15884,8 +15944,14 @@
       <c r="H7" s="32">
         <v>7081.6917144721383</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
         <v>8</v>
       </c>
@@ -15910,8 +15976,14 @@
       <c r="H8" s="32">
         <v>15798.407034628102</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
@@ -15936,8 +16008,14 @@
       <c r="H9" s="32">
         <v>6751.2433246558639</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>10</v>
       </c>
@@ -15962,8 +16040,14 @@
       <c r="H10" s="32">
         <v>6501.3557469055959</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
@@ -15988,8 +16072,14 @@
       <c r="H11" s="32">
         <v>20476.730469794435</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>12</v>
       </c>
@@ -16014,8 +16104,14 @@
       <c r="H12" s="32">
         <v>10652.098766796627</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>13</v>
       </c>
@@ -16040,8 +16136,14 @@
       <c r="H13" s="32">
         <v>10774.956459285413</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>14</v>
       </c>
@@ -16066,8 +16168,14 @@
       <c r="H14" s="32">
         <v>8792.1422288801132</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>16</v>
       </c>
@@ -16092,8 +16200,14 @@
       <c r="H15" s="32">
         <v>7787.5672655784711</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>17</v>
       </c>
@@ -16118,8 +16232,14 @@
       <c r="H16" s="32">
         <v>14457.009514711008</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>18</v>
       </c>
@@ -16144,8 +16264,14 @@
       <c r="H17" s="32">
         <v>45472.424275606027</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>19</v>
       </c>
@@ -16170,8 +16296,14 @@
       <c r="H18" s="32">
         <v>16430.141901911036</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>20</v>
       </c>
@@ -16196,8 +16328,14 @@
       <c r="H19" s="32">
         <v>10026.671407351061</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
@@ -16222,8 +16360,14 @@
       <c r="H20" s="32">
         <v>6452.2517207212804</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>22</v>
       </c>
@@ -16248,8 +16392,14 @@
       <c r="H21" s="32">
         <v>6683.0688046718005</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>23</v>
       </c>
@@ -16274,8 +16424,14 @@
       <c r="H22" s="32">
         <v>19304.236808039564</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>24</v>
       </c>
@@ -16300,8 +16456,14 @@
       <c r="H23" s="32">
         <v>10492.411693779526</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>25</v>
       </c>
@@ -16326,8 +16488,14 @@
       <c r="H24" s="32">
         <v>8176.5258929862885</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -16336,7 +16504,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -16345,7 +16513,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -16354,7 +16522,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -16363,7 +16531,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -16372,7 +16540,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -16381,7 +16549,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -16390,7 +16558,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -25094,7 +25262,7 @@
       <c r="G998" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H24"/>
+  <autoFilter ref="A1:J24"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
